--- a/Encuestas.xlsx
+++ b/Encuestas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Documents\Proyectos\Green Fashion Schore - Raul Ecodicta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\.cursor\Greenfashionscore-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E64653-786B-415C-A07D-758EBAB8B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E951A98-3368-4578-8238-6A9F6B012E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="278">
   <si>
     <t>PEOPLE</t>
   </si>
@@ -78,9 +78,6 @@
     </r>
   </si>
   <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -249,15 +246,6 @@
     <t>Educación y Concienciación del Consumidor</t>
   </si>
   <si>
-    <t>Id_Pregunta</t>
-  </si>
-  <si>
-    <t>Id_Respuesta</t>
-  </si>
-  <si>
-    <t>Respuesta</t>
-  </si>
-  <si>
     <t>Certificación ética externa (Fair Trade, SA8000, B Corp, Fair Wear Foundation o similar), salario digno garantizado en toda la cadena de suministro y auditorías anuales publicadas</t>
   </si>
   <si>
@@ -855,28 +843,37 @@
     <t>nombre_dimensión</t>
   </si>
   <si>
-    <t>Intro_dimension</t>
-  </si>
-  <si>
-    <t>Descripcion_dimension</t>
-  </si>
-  <si>
     <t>puntos_dimension</t>
   </si>
   <si>
-    <t>Id_pregunta</t>
-  </si>
-  <si>
     <t>puntos_pregunta</t>
   </si>
   <si>
-    <t>Pregunta_especifica</t>
-  </si>
-  <si>
     <t>id_dimension</t>
   </si>
   <si>
     <t>puntos_respuesta</t>
+  </si>
+  <si>
+    <t>intro_dimension</t>
+  </si>
+  <si>
+    <t>descripcion_dimension</t>
+  </si>
+  <si>
+    <t>pregunta_especifica</t>
+  </si>
+  <si>
+    <t>id_pregunta</t>
+  </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t>id_respuesta</t>
+  </si>
+  <si>
+    <t>respuesta</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1394,7 +1393,7 @@
         <v>269</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>271</v>
@@ -1403,7 +1402,7 @@
         <v>272</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
@@ -1498,7 +1497,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,22 +1512,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1539,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="10">
         <v>4</v>
@@ -1559,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="10">
         <v>4</v>
@@ -1579,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10">
         <v>4</v>
@@ -1599,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="10">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="10">
         <v>3</v>
@@ -1619,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10">
         <v>4</v>
@@ -1639,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="10">
         <v>3</v>
@@ -1659,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="10">
         <v>3</v>
@@ -1679,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="10">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="10">
         <v>3</v>
@@ -1699,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="10">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="10">
         <v>3</v>
@@ -1719,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="10">
         <v>3</v>
@@ -1739,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="10">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="10">
         <v>3</v>
@@ -1759,13 +1758,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="10">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="10">
         <v>2</v>
@@ -1779,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="10">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="10">
         <v>3</v>
@@ -1799,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="10">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="10">
         <v>4</v>
@@ -1819,13 +1818,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="10">
         <v>4</v>
@@ -1839,13 +1838,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="10">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="10">
         <v>6</v>
@@ -1859,13 +1858,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="10">
         <v>6</v>
@@ -1879,13 +1878,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="10">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="10">
         <v>4</v>
@@ -1899,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="10">
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="10">
         <v>8</v>
@@ -1919,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="10">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="10">
         <v>6</v>
@@ -1939,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="10">
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="10">
         <v>5</v>
@@ -1959,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="10">
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="10">
         <v>5</v>
@@ -1979,13 +1978,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="10">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="10">
         <v>6</v>
@@ -1996,16 +1995,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="10">
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="10">
         <v>10</v>
@@ -2016,16 +2015,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="10">
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="10">
         <v>7</v>
@@ -2036,16 +2035,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="10">
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="10">
         <v>9</v>
@@ -2056,16 +2055,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="10">
         <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="10">
         <v>8</v>
@@ -2076,16 +2075,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="10">
         <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="10">
         <v>5</v>
@@ -2096,16 +2095,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="10">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="10">
         <v>8</v>
@@ -2116,16 +2115,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="10">
         <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="10">
         <v>7</v>
@@ -2136,16 +2135,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="10">
         <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="10">
         <v>6</v>
@@ -2156,16 +2155,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="10">
         <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="10">
         <v>5</v>
@@ -2176,16 +2175,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F34" s="10">
         <v>2</v>
@@ -2196,16 +2195,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F35" s="10">
         <v>2</v>
@@ -2216,16 +2215,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F36" s="10">
         <v>2</v>
@@ -2236,16 +2235,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F37" s="10">
         <v>2</v>
@@ -2256,16 +2255,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F38" s="10">
         <v>2</v>
@@ -2276,16 +2275,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="10">
         <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="10">
         <v>20</v>
@@ -2296,16 +2295,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="10">
         <v>34</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="10">
         <v>10</v>
@@ -2316,16 +2315,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="10">
         <v>35</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="10">
         <v>50</v>
@@ -2336,16 +2335,16 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="10">
         <v>36</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="10">
         <v>70</v>
@@ -2356,16 +2355,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="10">
         <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="10">
         <v>30</v>
@@ -2376,16 +2375,16 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="10">
         <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="10">
         <v>30</v>
@@ -2396,16 +2395,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="10">
         <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="10">
         <v>5</v>
@@ -2416,16 +2415,16 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="10">
         <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="10">
         <v>5</v>
@@ -2436,16 +2435,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="10">
         <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" s="10">
         <v>5</v>
@@ -2461,7 +2460,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,22 +2475,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2502,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="18">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="18">
         <v>4</v>
@@ -2522,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="18">
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="18">
         <v>4</v>
@@ -2542,19 +2541,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="18">
         <v>15</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -2562,13 +2561,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="18">
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="18">
         <v>6</v>
@@ -2579,16 +2578,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="18">
         <v>24</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="18">
         <v>10</v>
@@ -2599,16 +2598,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="18">
         <v>25</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="18">
         <v>7</v>
@@ -2619,16 +2618,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="18">
         <v>26</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="18">
         <v>9</v>
@@ -2639,16 +2638,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="18">
         <v>27</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="18">
         <v>8</v>
@@ -2659,16 +2658,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="18">
         <v>28</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="18">
         <v>5</v>
@@ -2679,16 +2678,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="18">
         <v>29</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="18">
         <v>8</v>
@@ -2699,16 +2698,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="18">
         <v>32</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="18">
         <v>5</v>
@@ -2719,16 +2718,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="F13" s="18">
         <v>2</v>
@@ -2739,16 +2738,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="18">
         <v>2</v>
@@ -2759,16 +2758,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="F15" s="18">
         <v>2</v>
@@ -2779,16 +2778,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="18">
         <v>2</v>
@@ -2803,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29391A8-A992-4811-8FC6-6E3B7F67D9F2}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2818,16 +2817,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E1" s="16"/>
     </row>
@@ -2839,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="22">
         <v>4</v>
@@ -2854,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="22">
         <v>3</v>
@@ -2869,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22">
         <v>2</v>
@@ -2884,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -2899,7 +2898,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="22">
         <v>0</v>
@@ -2914,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="22">
         <v>4</v>
@@ -2929,7 +2928,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="22">
         <v>3</v>
@@ -2944,7 +2943,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
@@ -2959,7 +2958,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
@@ -2974,7 +2973,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" s="22">
         <v>4</v>
@@ -2989,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="22">
         <v>3</v>
@@ -3004,7 +3003,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" s="22">
         <v>2</v>
@@ -3019,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
@@ -3034,7 +3033,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" s="22">
         <v>0</v>
@@ -3049,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="22">
         <v>3</v>
@@ -3064,7 +3063,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" s="22">
         <v>2</v>
@@ -3079,7 +3078,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="22">
         <v>1</v>
@@ -3094,7 +3093,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19" s="22">
         <v>0</v>
@@ -3109,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20" s="22">
         <v>4</v>
@@ -3124,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" s="22">
         <v>3</v>
@@ -3139,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D22" s="22">
         <v>2</v>
@@ -3154,7 +3153,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" s="22">
         <v>1</v>
@@ -3169,7 +3168,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24" s="22">
         <v>0</v>
@@ -3184,7 +3183,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D25" s="22">
         <v>3</v>
@@ -3199,7 +3198,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" s="22">
         <v>2</v>
@@ -3214,7 +3213,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="22">
         <v>1</v>
@@ -3229,7 +3228,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" s="22">
         <v>0</v>
@@ -3244,7 +3243,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D29" s="22">
         <v>3</v>
@@ -3259,7 +3258,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" s="22">
         <v>2</v>
@@ -3274,7 +3273,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" s="22">
         <v>1</v>
@@ -3289,7 +3288,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" s="22">
         <v>0</v>
@@ -3304,7 +3303,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="22">
         <v>3</v>
@@ -3319,7 +3318,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" s="22">
         <v>2</v>
@@ -3334,7 +3333,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D35" s="22">
         <v>1</v>
@@ -3349,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D36" s="22">
         <v>0</v>
@@ -3364,7 +3363,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D37" s="22">
         <v>3</v>
@@ -3379,7 +3378,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D38" s="22">
         <v>2</v>
@@ -3394,7 +3393,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D39" s="22">
         <v>1</v>
@@ -3409,14 +3408,14 @@
         <v>39</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D40" s="22">
         <v>0</v>
       </c>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="22">
         <v>10</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D41" s="22">
         <v>3</v>
@@ -3439,7 +3438,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D42" s="22">
         <v>2</v>
@@ -3454,7 +3453,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D43" s="22">
         <v>1</v>
@@ -3469,7 +3468,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D44" s="22">
         <v>0</v>
@@ -3484,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D45" s="22">
         <v>3</v>
@@ -3499,7 +3498,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D46" s="22">
         <v>2</v>
@@ -3514,7 +3513,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47" s="22">
         <v>1</v>
@@ -3529,7 +3528,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="22">
         <v>0</v>
@@ -3543,7 +3542,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D49" s="22">
         <v>2</v>
@@ -3557,7 +3556,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D50" s="22">
         <v>1</v>
@@ -3571,7 +3570,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D51" s="22">
         <v>0</v>
@@ -3585,7 +3584,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D52" s="22">
         <v>3</v>
@@ -3599,7 +3598,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D53" s="22">
         <v>2</v>
@@ -3613,7 +3612,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D54" s="22">
         <v>1</v>
@@ -3627,7 +3626,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D55" s="22">
         <v>0</v>
@@ -3641,7 +3640,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D56" s="22">
         <v>4</v>
@@ -3655,7 +3654,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D57" s="22">
         <v>3</v>
@@ -3669,7 +3668,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D58" s="22">
         <v>1</v>
@@ -3683,7 +3682,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D59" s="22">
         <v>0</v>
@@ -3697,7 +3696,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="22">
         <v>4</v>
@@ -3711,7 +3710,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D61" s="22">
         <v>3</v>
@@ -3725,7 +3724,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D62" s="22">
         <v>2</v>
@@ -3739,7 +3738,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D63" s="22">
         <v>1</v>
@@ -3753,7 +3752,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D64" s="22">
         <v>0</v>
@@ -3767,7 +3766,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D65" s="22">
         <v>6</v>
@@ -3781,7 +3780,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D66" s="22">
         <v>4</v>
@@ -3795,7 +3794,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D67" s="22">
         <v>2</v>
@@ -3809,7 +3808,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D68" s="22">
         <v>0</v>
@@ -3823,7 +3822,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D69" s="22">
         <v>6</v>
@@ -3837,7 +3836,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D70" s="22">
         <v>4</v>
@@ -3851,7 +3850,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D71" s="22">
         <v>2</v>
@@ -3865,7 +3864,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D72" s="22">
         <v>0</v>
@@ -3879,7 +3878,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D73" s="22">
         <v>4</v>
@@ -3893,7 +3892,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D74" s="22">
         <v>3</v>
@@ -3907,7 +3906,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D75" s="22">
         <v>1</v>
@@ -3921,7 +3920,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D76" s="22">
         <v>0</v>
@@ -3935,7 +3934,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D77" s="22">
         <v>8</v>
@@ -3949,7 +3948,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D78" s="22">
         <v>6</v>
@@ -3963,7 +3962,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D79" s="22">
         <v>3</v>
@@ -3977,7 +3976,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D80" s="22">
         <v>0</v>
@@ -3991,7 +3990,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D81" s="22">
         <v>6</v>
@@ -4005,7 +4004,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D82" s="22">
         <v>5</v>
@@ -4019,7 +4018,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D83" s="22">
         <v>4</v>
@@ -4033,7 +4032,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D84" s="22">
         <v>2</v>
@@ -4047,7 +4046,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D85" s="22">
         <v>0</v>
@@ -4061,7 +4060,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D86" s="22">
         <v>5</v>
@@ -4075,7 +4074,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D87" s="22">
         <v>4</v>
@@ -4089,7 +4088,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D88" s="22">
         <v>3</v>
@@ -4103,7 +4102,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D89" s="22">
         <v>1</v>
@@ -4117,7 +4116,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D90" s="22">
         <v>0</v>
@@ -4131,7 +4130,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D91" s="22">
         <v>5</v>
@@ -4145,7 +4144,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D92" s="22">
         <v>3</v>
@@ -4159,7 +4158,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D93" s="22">
         <v>2</v>
@@ -4173,7 +4172,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D94" s="22">
         <v>0</v>
@@ -4187,7 +4186,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D95" s="22">
         <v>6</v>
@@ -4201,7 +4200,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D96" s="22">
         <v>5</v>
@@ -4215,7 +4214,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D97" s="22">
         <v>3</v>
@@ -4229,7 +4228,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D98" s="22">
         <v>2</v>
@@ -4243,7 +4242,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D99" s="22">
         <v>0</v>
@@ -4257,7 +4256,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D100" s="22">
         <v>10</v>
@@ -4271,7 +4270,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D101" s="22">
         <v>8</v>
@@ -4285,7 +4284,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D102" s="22">
         <v>6</v>
@@ -4299,7 +4298,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D103" s="22">
         <v>6</v>
@@ -4313,7 +4312,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D104" s="22">
         <v>5</v>
@@ -4327,7 +4326,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D105" s="22">
         <v>4</v>
@@ -4341,7 +4340,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D106" s="22">
         <v>2</v>
@@ -4355,7 +4354,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D107" s="22">
         <v>1</v>
@@ -4369,7 +4368,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D108" s="22">
         <v>0</v>
@@ -4383,7 +4382,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D109" s="22">
         <v>7</v>
@@ -4397,7 +4396,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D110" s="22">
         <v>6</v>
@@ -4411,7 +4410,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D111" s="22">
         <v>5</v>
@@ -4425,7 +4424,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D112" s="22">
         <v>3</v>
@@ -4439,7 +4438,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D113" s="22">
         <v>0</v>
@@ -4453,7 +4452,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D114" s="22">
         <v>9</v>
@@ -4467,7 +4466,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D115" s="22">
         <v>7</v>
@@ -4481,7 +4480,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D116" s="22">
         <v>5</v>
@@ -4495,7 +4494,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D117" s="22">
         <v>3</v>
@@ -4509,7 +4508,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D118" s="22"/>
     </row>
@@ -4521,7 +4520,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D119" s="22">
         <v>8</v>
@@ -4535,7 +4534,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D120" s="22">
         <v>6</v>
@@ -4549,7 +4548,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D121" s="22">
         <v>5</v>
@@ -4563,7 +4562,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D122" s="22">
         <v>3</v>
@@ -4577,7 +4576,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D123" s="22">
         <v>0</v>
@@ -4591,7 +4590,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D124" s="22">
         <v>5</v>
@@ -4605,7 +4604,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D125" s="22">
         <v>4</v>
@@ -4619,7 +4618,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D126" s="22">
         <v>3</v>
@@ -4633,7 +4632,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D127" s="22">
         <v>2</v>
@@ -4647,7 +4646,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D128" s="22">
         <v>0</v>
@@ -4661,7 +4660,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D129" s="22">
         <v>8</v>
@@ -4675,7 +4674,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D130" s="22">
         <v>6</v>
@@ -4689,7 +4688,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D131" s="22">
         <v>2</v>
@@ -4703,7 +4702,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D132" s="22">
         <v>0</v>
@@ -4717,7 +4716,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D133" s="22">
         <v>7</v>
@@ -4731,7 +4730,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D134" s="22">
         <v>7</v>
@@ -4745,7 +4744,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D135" s="22">
         <v>4</v>
@@ -4759,7 +4758,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D136" s="22">
         <v>2</v>
@@ -4773,7 +4772,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D137" s="22">
         <v>0</v>
@@ -4787,7 +4786,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D138" s="22">
         <v>6</v>
@@ -4801,7 +4800,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D139" s="22">
         <v>4</v>
@@ -4815,7 +4814,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D140" s="22">
         <v>2</v>
@@ -4829,7 +4828,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D141" s="22">
         <v>0</v>
@@ -4843,7 +4842,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D142" s="22">
         <v>5</v>
@@ -4857,7 +4856,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D143" s="22">
         <v>4</v>
@@ -4871,7 +4870,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D144" s="22">
         <v>2</v>
@@ -4885,7 +4884,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D145" s="22">
         <v>0</v>
@@ -4893,13 +4892,13 @@
     </row>
     <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B146" s="22">
         <v>145</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D146" s="22">
         <v>2</v>
@@ -4907,13 +4906,13 @@
     </row>
     <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B147" s="22">
         <v>146</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D147" s="22">
         <v>1</v>
@@ -4921,13 +4920,13 @@
     </row>
     <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B148" s="22">
         <v>147</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D148" s="22">
         <v>0</v>
@@ -4935,13 +4934,13 @@
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B149" s="22">
         <v>148</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D149" s="22">
         <v>2</v>
@@ -4949,13 +4948,13 @@
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B150" s="22">
         <v>149</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D150" s="22">
         <v>1</v>
@@ -4963,13 +4962,13 @@
     </row>
     <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B151" s="22">
         <v>150</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D151" s="22">
         <v>0</v>
@@ -4977,13 +4976,13 @@
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B152" s="22">
         <v>151</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D152" s="22">
         <v>2</v>
@@ -4991,13 +4990,13 @@
     </row>
     <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B153" s="22">
         <v>152</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D153" s="22">
         <v>1</v>
@@ -5005,13 +5004,13 @@
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B154" s="22">
         <v>153</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D154" s="22">
         <v>0</v>
@@ -5019,13 +5018,13 @@
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B155" s="22">
         <v>154</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D155" s="22">
         <v>2</v>
@@ -5033,13 +5032,13 @@
     </row>
     <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B156" s="22">
         <v>155</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D156" s="22">
         <v>1</v>
@@ -5047,13 +5046,13 @@
     </row>
     <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B157" s="22">
         <v>156</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D157" s="22">
         <v>0</v>
@@ -5061,13 +5060,13 @@
     </row>
     <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B158" s="22">
         <v>157</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D158" s="22">
         <v>2</v>
@@ -5075,13 +5074,13 @@
     </row>
     <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B159" s="22">
         <v>158</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D159" s="22">
         <v>1</v>
@@ -5089,13 +5088,13 @@
     </row>
     <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B160" s="22">
         <v>159</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D160" s="22">
         <v>0</v>
@@ -5109,7 +5108,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D161" s="22">
         <v>20</v>
@@ -5123,7 +5122,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D162" s="22">
         <v>15</v>
@@ -5137,7 +5136,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D163" s="22">
         <v>10</v>
@@ -5151,7 +5150,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D164" s="22">
         <v>5</v>
@@ -5165,7 +5164,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D165" s="22">
         <v>0</v>
@@ -5179,7 +5178,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D166" s="22">
         <v>10</v>
@@ -5193,7 +5192,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D167" s="22">
         <v>7</v>
@@ -5207,7 +5206,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D168" s="22">
         <v>2</v>
@@ -5221,7 +5220,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D169" s="22">
         <v>0</v>
@@ -5235,7 +5234,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D170" s="22">
         <v>70</v>
@@ -5249,7 +5248,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D171" s="22">
         <v>40</v>
@@ -5263,7 +5262,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D172" s="22">
         <v>30</v>
@@ -5277,7 +5276,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D173" s="22">
         <v>10</v>
@@ -5291,7 +5290,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D174" s="22">
         <v>0</v>
@@ -5305,7 +5304,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D175" s="22">
         <v>70</v>
@@ -5319,7 +5318,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D176" s="22">
         <v>50</v>
@@ -5333,7 +5332,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D177" s="22">
         <v>30</v>
@@ -5347,7 +5346,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D178" s="22">
         <v>0</v>
@@ -5361,7 +5360,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D179" s="22">
         <v>30</v>
@@ -5375,7 +5374,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D180" s="22">
         <v>20</v>
@@ -5389,7 +5388,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D181" s="22">
         <v>10</v>
@@ -5403,7 +5402,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D182" s="22">
         <v>0</v>
@@ -5417,7 +5416,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D183" s="22">
         <v>30</v>
@@ -5431,7 +5430,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D184" s="22">
         <v>20</v>
@@ -5445,7 +5444,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D185" s="22">
         <v>10</v>
@@ -5459,7 +5458,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D186" s="22">
         <v>0</v>
@@ -5473,7 +5472,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D187" s="22">
         <v>5</v>
@@ -5487,7 +5486,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D188" s="22">
         <v>4</v>
@@ -5501,7 +5500,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D189" s="22">
         <v>2</v>
@@ -5515,7 +5514,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D190" s="22">
         <v>0</v>
@@ -5529,7 +5528,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D191" s="22">
         <v>5</v>
@@ -5543,7 +5542,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D192" s="22">
         <v>4</v>
@@ -5557,7 +5556,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D193" s="22">
         <v>2</v>
@@ -5571,7 +5570,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D194" s="22">
         <v>0</v>
@@ -5585,7 +5584,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D195" s="22">
         <v>5</v>
@@ -5599,7 +5598,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D196" s="22">
         <v>3</v>
@@ -5613,7 +5612,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D197" s="22">
         <v>2</v>
@@ -5627,7 +5626,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D198" s="22">
         <v>0</v>
